--- a/RUDN/Importance/Varible_muatal_in_Caribbean.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Caribbean.xlsx
@@ -79,18 +79,18 @@
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 50-54, male (% of male population)</t>
+    <t>Rural population growth (annual %)</t>
   </si>
   <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
     <t>Country_code</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
     <t>Male population 50-54</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Female population 40-44</t>
   </si>
   <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
@@ -175,18 +175,18 @@
     <t>Male population 55-59</t>
   </si>
   <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
     <t>Female population 55-59</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
+    <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
     <t>Male population 60-64</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Male population 75-79</t>
   </si>
   <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>Female population 20-24</t>
   </si>
   <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
@@ -286,54 +286,54 @@
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
     <t>Labor force, female</t>
   </si>
   <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
@@ -376,27 +376,27 @@
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 25, female, interpolated</t>
+    <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
@@ -415,12 +415,12 @@
     <t>Female population 25-29</t>
   </si>
   <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
@@ -442,12 +442,18 @@
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>Population, total</t>
   </si>
   <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
@@ -457,12 +463,6 @@
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
@@ -484,33 +484,33 @@
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>Female population 00-04</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
     <t>Male population 80+</t>
   </si>
   <si>
     <t>Male population 00-04</t>
   </si>
   <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
+    <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Number of people who are undernourished</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
@@ -592,12 +592,12 @@
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
@@ -622,72 +622,72 @@
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
@@ -700,73 +700,76 @@
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
@@ -775,18 +778,15 @@
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
@@ -799,250 +799,298 @@
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
     <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Status under enhanced HIPC initiative</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% net)</t>
@@ -1051,112 +1099,73 @@
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
     <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
+    <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
     <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
     <t>Employment in services, female (% of female employment)</t>
@@ -1165,37 +1174,31 @@
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
     <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
     <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
     <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
     <t>Persistence to grade 5, female (% of cohort)</t>
@@ -1204,151 +1207,154 @@
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
   </si>
   <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Completeness of birth registration (%)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
+    <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>Completeness of birth registration (%)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Low-birthweight babies (% of births)</t>
+    <t>Pregnant women receiving prenatal care (%)</t>
   </si>
   <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
@@ -1357,66 +1363,72 @@
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
     <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
   </si>
   <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
     <t>Prevalence of underweight, weight for age (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
     <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
   </si>
   <si>
@@ -1427,18 +1439,6 @@
   </si>
   <si>
     <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
   </si>
   <si>
     <t>Prevalence of wasting, male (% of children under 5)</t>
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.523073229267078</v>
+        <v>1.521558077751927</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1853,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.523073229267078</v>
+        <v>1.521558077751927</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.484837203094597</v>
+        <v>1.482641779470602</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.469531452015613</v>
+        <v>1.467366949851111</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.376644345839607</v>
+        <v>1.374073999519261</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.369364431535333</v>
+        <v>1.368864931035833</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.351903276670966</v>
+        <v>1.352552627320317</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.351903276670966</v>
+        <v>1.352552627320317</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.302485600674948</v>
+        <v>1.300321098510446</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.276282536549075</v>
+        <v>1.271953532220071</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.24829705848006</v>
+        <v>1.248405283588285</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.22402368041245</v>
+        <v>1.224523180911951</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1989,7 +1989,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.222544336775378</v>
+        <v>1.222254942687865</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.222254942687865</v>
+        <v>1.220070620015947</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.221826699624342</v>
+        <v>1.21937343459039</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.219346378313333</v>
+        <v>1.219256353303996</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.203316375867157</v>
+        <v>1.206632476484582</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.191617695390157</v>
+        <v>1.190102543875005</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.173981322409896</v>
+        <v>1.173731572160146</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.16029341891959</v>
+        <v>1.158128916755088</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.154993070682567</v>
+        <v>1.152828568518065</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.14773663699339</v>
+        <v>1.148142481149234</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.14249313870395</v>
+        <v>1.143154425149785</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.141531048526408</v>
+        <v>1.142601363812175</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.138275604779911</v>
+        <v>1.138924955429262</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.137508352115792</v>
+        <v>1.137102507959948</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.126683295075347</v>
+        <v>1.124518792910845</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.119807804180395</v>
+        <v>1.118107123908287</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.114690209743871</v>
+        <v>1.114452607807717</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.113803257158366</v>
+        <v>1.114329459383121</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.111368949551321</v>
+        <v>1.109204447386818</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.104746740784648</v>
+        <v>1.100877660048982</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.099912355888057</v>
+        <v>1.100561706537408</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.097533212427749</v>
+        <v>1.096720735125101</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.09607138447575</v>
+        <v>1.095368710263246</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.094998404447813</v>
+        <v>1.094637654087063</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.09271210987936</v>
+        <v>1.09206275923001</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.086631021200862</v>
+        <v>1.083925393495234</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.075370282248504</v>
+        <v>1.073038596395864</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.074120847478115</v>
+        <v>1.072799935928157</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.06038711981819</v>
+        <v>1.060370115342546</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.060370115342546</v>
+        <v>1.056892994895494</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.055749937162458</v>
+        <v>1.055344093006614</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.051926511896548</v>
+        <v>1.052575862545899</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.025867805153615</v>
+        <v>1.026517155802966</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.017343655240393</v>
+        <v>1.016693200644646</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.016693200644646</v>
+        <v>1.015828503725242</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.006627165846407</v>
+        <v>1.005112014331256</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.004674472536754</v>
+        <v>1.004569738561053</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.002559447715146</v>
+        <v>1.003208798364497</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.002056853456037</v>
+        <v>1.000974602373786</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.9937645186148614</v>
+        <v>0.9944138692642122</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9929537187070574</v>
+        <v>0.993101298400092</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9874894718802407</v>
+        <v>0.9881388225295915</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9861878853516473</v>
+        <v>0.9864673797869861</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9846893465777624</v>
+        <v>0.9831741950626109</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9842768048370454</v>
+        <v>0.9825459571993473</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9816835062134894</v>
+        <v>0.9817084812384647</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9797572241282599</v>
+        <v>0.9795272798389414</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9796625612242229</v>
+        <v>0.9795025768147891</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.9771372026383625</v>
+        <v>0.9770098789816273</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.9758554618617545</v>
+        <v>0.9759936215743823</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9721103789223078</v>
+        <v>0.9719830552655726</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9708100802824182</v>
+        <v>0.9705688904607226</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.9706059531510154</v>
+        <v>0.9701002088952708</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9705688904607226</v>
+        <v>0.9693216810539558</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9693216810539558</v>
+        <v>0.9692036636731438</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9685276703784786</v>
+        <v>0.9681218262226341</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9677006648360291</v>
+        <v>0.9674490589547167</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9674490589547167</v>
+        <v>0.967294820680185</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9659637457021153</v>
+        <v>0.9637992435376133</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9591500493936813</v>
+        <v>0.9594107069288396</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9590309962835433</v>
+        <v>0.9588343977692411</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9588695813877139</v>
+        <v>0.9584283792036536</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9588343977692411</v>
+        <v>0.9569855472291793</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9574415808127754</v>
+        <v>0.9568154212580446</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.956463489768552</v>
+        <v>0.9558497911627029</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.955625810564056</v>
+        <v>0.9557142390193012</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9548911784308747</v>
+        <v>0.9546142188708266</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.9512335790609416</v>
+        <v>0.9509502538955408</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.9501983599673283</v>
+        <v>0.9503787351477038</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.9447545300742231</v>
+        <v>0.9445532132029266</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9439038625535758</v>
+        <v>0.9439892239517744</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.9431522223190567</v>
+        <v>0.9432875037043382</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.9429114052587255</v>
+        <v>0.9430316553789762</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.940695057815927</v>
+        <v>0.9407997917916289</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.9402958281720011</v>
+        <v>0.9402958281720006</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9396576403219696</v>
+        <v>0.9397170808332489</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.93960512382474</v>
+        <v>0.9394578401221692</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.9391481048093484</v>
+        <v>0.938905524836571</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.9379743463286443</v>
+        <v>0.9385759074277884</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.937655994007875</v>
+        <v>0.9375685021728</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.9375698431047124</v>
+        <v>0.937400658879151</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.937400658879151</v>
+        <v>0.9369204924553618</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.936463122928388</v>
+        <v>0.9363600513967454</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.9354448840466552</v>
+        <v>0.9354448840466556</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9312368603619159</v>
+        <v>0.9313796612218606</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.9306310073222426</v>
+        <v>0.9312803579715934</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.9289086342546755</v>
+        <v>0.9288280034039262</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.9288280034039262</v>
+        <v>0.9284737219826937</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.9187479788410906</v>
+        <v>0.9191272627592477</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.9107734452366585</v>
+        <v>0.9128567390939211</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.9091133452676317</v>
+        <v>0.9114227958860093</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.9073124016538165</v>
+        <v>0.9097626959169822</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.9066227273613152</v>
+        <v>0.9085555162575498</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.9056278589482982</v>
+        <v>0.9080081344924067</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9051484339681917</v>
+        <v>0.9072720780106656</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.905012432357323</v>
+        <v>0.9061148719353112</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.9049353570075598</v>
+        <v>0.9055847076569106</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.9027473708025391</v>
+        <v>0.9033967214518899</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.8976383575480593</v>
+        <v>0.8977382576479593</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.8950117814477248</v>
+        <v>0.8950008232641531</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.8942892302369563</v>
+        <v>0.8949385808863073</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.8885863449064095</v>
+        <v>0.8884832733747665</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.8851362327350119</v>
+        <v>0.886804084576398</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8849064899856387</v>
+        <v>0.8851362327350119</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.8818191492597602</v>
+        <v>0.881557735954869</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.8787390232738752</v>
+        <v>0.8784042877758451</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.8784042877758451</v>
+        <v>0.8782433167087667</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.8783552737172755</v>
+        <v>0.8780896726245246</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.8772604104264725</v>
+        <v>0.8745602461001827</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.8745602461001827</v>
+        <v>0.8733913296908065</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.8674865951717157</v>
+        <v>0.8689799059701007</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.8640239628342838</v>
+        <v>0.8646733134836344</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3189,7 +3189,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.8621145170374402</v>
+        <v>0.8642681966911201</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3205,7 +3205,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.7988764146090745</v>
+        <v>0.8004224875837185</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.7949190475647272</v>
+        <v>0.7970355400947535</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.7450312407798632</v>
+        <v>0.7513130426481234</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.7339304166832679</v>
+        <v>0.7348431097532053</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.730884862013681</v>
+        <v>0.7297376423731365</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6559879892217573</v>
+        <v>0.652741235975004</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.626734222530452</v>
+        <v>0.6197810418923271</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.6192013198417496</v>
+        <v>0.618770879070399</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.6192013198417496</v>
+        <v>0.618770879070399</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5884716148</v>
+        <v>0.5867275255559101</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.5758575571538536</v>
+        <v>0.5736157513406195</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.570588085260229</v>
+        <v>0.5707848581842745</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5609854233824243</v>
+        <v>0.5597529419629961</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.5221476499658111</v>
+        <v>0.5265335893117797</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.5221429077747841</v>
+        <v>0.5231329751655338</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.4972698321680058</v>
+        <v>0.5087525670627684</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.4890792749868791</v>
+        <v>0.4917773748089636</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4890527839085488</v>
+        <v>0.486810978095314</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4660323462018552</v>
+        <v>0.4589004347600936</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.459739845275922</v>
+        <v>0.456765722580823</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.4315713985769707</v>
+        <v>0.4229008390110645</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4228684432007546</v>
+        <v>0.4158338111661224</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4125427798184524</v>
+        <v>0.4129174051930775</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4056565116984925</v>
+        <v>0.3956751385695942</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.3950956750086236</v>
+        <v>0.3907249240084987</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.3940493665664455</v>
+        <v>0.3889005802218244</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.3907249240084987</v>
+        <v>0.388587904218884</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.388587904218884</v>
+        <v>0.3866088903759695</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.3785971892550086</v>
+        <v>0.3731047318959662</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.3731877604264269</v>
+        <v>0.3714917818193888</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.3706942147325889</v>
+        <v>0.3704753516989803</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.3678899568351326</v>
+        <v>0.369956417081531</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.3600473526417201</v>
+        <v>0.3579732127164379</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3588772587665752</v>
+        <v>0.354511229062227</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3581016394206162</v>
+        <v>0.3526903840093611</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3579732127164379</v>
+        <v>0.3519543442669519</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.3471269901721905</v>
+        <v>0.3469911610889935</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.3468212347140696</v>
+        <v>0.3466628565069108</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.344357855878421</v>
+        <v>0.339427927721714</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3302237115343014</v>
+        <v>0.3263276076381973</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.327625816285934</v>
+        <v>0.325105790266254</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3252410716515355</v>
+        <v>0.3214077918860914</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3228046322549272</v>
+        <v>0.3161537074221843</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3176682821480488</v>
+        <v>0.3108090026886021</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3036053677559258</v>
+        <v>0.2999255681667305</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.302522970764133</v>
+        <v>0.2971831261213842</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.2930170849636209</v>
+        <v>0.2842016579663755</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3645,7 +3645,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.2778823100629699</v>
+        <v>0.2772355970853073</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3653,7 +3653,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.2772355970853073</v>
+        <v>0.2707039057759542</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.2681535899512177</v>
+        <v>0.2706291510535437</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.2680495682153501</v>
+        <v>0.2681535899512177</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.2518582092976021</v>
+        <v>0.2546496132810161</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.2489129447937535</v>
+        <v>0.2492031855516059</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3693,7 +3693,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.2458296265800499</v>
+        <v>0.2469162465778429</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.2445120105927872</v>
+        <v>0.2458296265800499</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3709,7 +3709,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.2406086364408626</v>
+        <v>0.2365259324456352</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3717,7 +3717,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.2397456625319501</v>
+        <v>0.2342538800861065</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3725,7 +3725,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.2293933003010884</v>
+        <v>0.2316050193285748</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3733,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.2281647154119244</v>
+        <v>0.2278311631381826</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2281156923260723</v>
+        <v>0.2278187230204778</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.2240565282990883</v>
+        <v>0.2247058789484391</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2182454025421479</v>
+        <v>0.2209050334043889</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2120227168215829</v>
+        <v>0.2097774259606486</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2097774259606486</v>
+        <v>0.2091276128263218</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2091276128263218</v>
+        <v>0.2056679604668268</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.2078672221392552</v>
+        <v>0.2054244268393171</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2046207937107534</v>
+        <v>0.2050373511921899</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.2035579701392543</v>
+        <v>0.2006337399232323</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.2006337399232323</v>
+        <v>0.2004591446621304</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.2001634484384567</v>
+        <v>0.1972032137844979</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1963887710867045</v>
+        <v>0.196106672136044</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.1959771710396048</v>
+        <v>0.1960849861764089</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.1959661693639623</v>
+        <v>0.1959771710396048</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3853,7 +3853,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.1933112873728975</v>
+        <v>0.1915416177408165</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3861,7 +3861,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.1924922742875155</v>
+        <v>0.1886231935518501</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3869,7 +3869,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.1904773029584523</v>
+        <v>0.1868718934335036</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.1862807051802411</v>
+        <v>0.1862758301753658</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3885,7 +3885,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.1859955367070727</v>
+        <v>0.1849928224900719</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3893,7 +3893,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.1839894589439253</v>
+        <v>0.1841492438299765</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3909,7 +3909,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.1809521857682119</v>
+        <v>0.1795698890684942</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.1802443224171599</v>
+        <v>0.1789144615876306</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3925,7 +3925,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.1795698890684942</v>
+        <v>0.1776446139967141</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.1792478652423899</v>
+        <v>0.1770412760377371</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.1770412760377371</v>
+        <v>0.1716942509126249</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3949,7 +3949,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.1764380547396296</v>
+        <v>0.1715952914666681</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3957,7 +3957,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.1737319750932065</v>
+        <v>0.170107570619856</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.1716378459169183</v>
+        <v>0.1671766811925417</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3973,7 +3973,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.1716378459169183</v>
+        <v>0.1626856869647595</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.170107570619856</v>
+        <v>0.1626856869647595</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.1632069868956914</v>
+        <v>0.1611692627151098</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.1612448560622952</v>
+        <v>0.1606368731181966</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.1606368731181966</v>
+        <v>0.1604535308219375</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.1599761989374131</v>
+        <v>0.1599158386972577</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4021,7 +4021,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.1583781283424168</v>
+        <v>0.1581289762500182</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.1581289762500182</v>
+        <v>0.1572020214664949</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4045,7 +4045,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.1572020214664949</v>
+        <v>0.1563404041618353</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.1549433873211425</v>
+        <v>0.1543788543202491</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1549433873211425</v>
+        <v>0.1540032615456222</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4069,7 +4069,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.1543788543202491</v>
+        <v>0.1521475216895829</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4077,7 +4077,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.1541852458701645</v>
+        <v>0.1503931983029569</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4085,7 +4085,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.1540032615456222</v>
+        <v>0.1500993486146287</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4093,7 +4093,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.1539954525107328</v>
+        <v>0.1490534591216561</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4101,7 +4101,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.1495938082990214</v>
+        <v>0.1478275533387237</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4109,7 +4109,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.1494354300918626</v>
+        <v>0.1478275533387237</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4117,7 +4117,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1453143743863936</v>
+        <v>0.1432766502058125</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.1424541963908967</v>
+        <v>0.1418315612066212</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4133,7 +4133,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.1424541963908967</v>
+        <v>0.1418170023632983</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4141,7 +4141,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.1422488047109327</v>
+        <v>0.14019212587345</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4149,7 +4149,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.1418315612066212</v>
+        <v>0.139342069536601</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4157,7 +4157,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.1418170023632983</v>
+        <v>0.1381251920618924</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4165,7 +4165,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.14019212587345</v>
+        <v>0.1381251920618924</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4173,7 +4173,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.139342069536601</v>
+        <v>0.1367868636364977</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4181,7 +4181,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.1388245878170793</v>
+        <v>0.1367868636364977</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4189,7 +4189,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.1388245878170793</v>
+        <v>0.1367868636364977</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4197,7 +4197,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.1388245878170793</v>
+        <v>0.1357552982174262</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4205,7 +4205,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.1372446525548021</v>
+        <v>0.134471464727246</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4213,7 +4213,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.1360162590515079</v>
+        <v>0.1333950084039419</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4221,7 +4221,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.134471464727246</v>
+        <v>0.1304475853010163</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4229,7 +4229,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1341620562405781</v>
+        <v>0.1296392599712617</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4237,7 +4237,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1307865298719788</v>
+        <v>0.1286670783116635</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4245,7 +4245,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1307416669872525</v>
+        <v>0.1270614689295542</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4253,7 +4253,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.1286670783116635</v>
+        <v>0.1263294620392925</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4261,7 +4261,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1285570088890109</v>
+        <v>0.1263294620392925</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4269,7 +4269,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1284939642037948</v>
+        <v>0.1259504031559371</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4277,7 +4277,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1284939642037948</v>
+        <v>0.1248058542463839</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4285,7 +4285,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1264121182802034</v>
+        <v>0.1237435703037195</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4293,7 +4293,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1259504031559371</v>
+        <v>0.1217608856870322</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4301,7 +4301,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1253179139864486</v>
+        <v>0.1214218100903448</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4309,7 +4309,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1246800408657895</v>
+        <v>0.1207369303789547</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4317,7 +4317,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1238549801788806</v>
+        <v>0.1205827551667389</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4325,7 +4325,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.1231319380178384</v>
+        <v>0.1204422929007329</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4333,7 +4333,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1230059695240369</v>
+        <v>0.1204422929007329</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4341,7 +4341,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1227746545595358</v>
+        <v>0.1204422929007329</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4349,7 +4349,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.122388953572244</v>
+        <v>0.1204422929007329</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4357,7 +4357,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1217990746047237</v>
+        <v>0.118693658118995</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4365,7 +4365,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1211115350376815</v>
+        <v>0.118693658118995</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4373,7 +4373,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1206511078666701</v>
+        <v>0.1175502074360302</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4381,7 +4381,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1197929422513822</v>
+        <v>0.1163873387675443</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4389,7 +4389,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1197929422513822</v>
+        <v>0.1152731195898249</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4397,7 +4397,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.1197929422513822</v>
+        <v>0.1144020734201407</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4405,7 +4405,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1197929422513822</v>
+        <v>0.1131951785008276</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4413,7 +4413,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.118693658118995</v>
+        <v>0.1123638502580431</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4421,7 +4421,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.118693658118995</v>
+        <v>0.1121931104270446</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1173145533698619</v>
+        <v>0.1118765267624271</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4437,7 +4437,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1157181568092336</v>
+        <v>0.1111789586147069</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1132452533270731</v>
+        <v>0.110380449078737</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4453,7 +4453,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1132239645809845</v>
+        <v>0.1089852762230636</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1129441396193016</v>
+        <v>0.1084503165040791</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4469,7 +4469,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.1123638502580431</v>
+        <v>0.1084503165040791</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4477,7 +4477,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.1123464204001827</v>
+        <v>0.1081388734865003</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4485,7 +4485,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1123464204001827</v>
+        <v>0.1077493344244966</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4493,7 +4493,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.111761058116659</v>
+        <v>0.107429403376841</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4501,7 +4501,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.110380449078737</v>
+        <v>0.1061899559415187</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4509,7 +4509,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.1103773542096029</v>
+        <v>0.1058699462047961</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4517,7 +4517,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.1101765976670814</v>
+        <v>0.1049156092695918</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4525,7 +4525,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.1095990468506096</v>
+        <v>0.104641357223177</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4533,7 +4533,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1092446135985961</v>
+        <v>0.1034851058920012</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4541,7 +4541,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1086469092162372</v>
+        <v>0.1033566451943322</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4549,7 +4549,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.107252749090436</v>
+        <v>0.1031331365812458</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4557,7 +4557,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1065422274903367</v>
+        <v>0.1030960325900458</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4565,7 +4565,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.1062974391173666</v>
+        <v>0.1022224591537531</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4573,7 +4573,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.1062474165063527</v>
+        <v>0.1021541064538209</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4581,7 +4581,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.1058699462047961</v>
+        <v>0.1021541064538209</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4589,7 +4589,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.1047450440352726</v>
+        <v>0.1012769516729566</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4597,7 +4597,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1034851058920012</v>
+        <v>0.1000430131123411</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4605,7 +4605,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1032323066155099</v>
+        <v>0.09989118638087913</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4613,7 +4613,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1032298137789847</v>
+        <v>0.0997228823299019</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4621,7 +4621,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1030198915454532</v>
+        <v>0.0996108006363623</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4629,7 +4629,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1027820603764975</v>
+        <v>0.09947101247536327</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4637,7 +4637,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1022224591537531</v>
+        <v>0.09947101247536327</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1021541064538209</v>
+        <v>0.09890330228650535</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1021541064538209</v>
+        <v>0.09881202217431895</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1020414369961085</v>
+        <v>0.09881202217431895</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1012769516729566</v>
+        <v>0.09863234608701754</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1007990764087312</v>
+        <v>0.09843494043828804</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.100536001305189</v>
+        <v>0.09738998549964029</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.09989842132646753</v>
+        <v>0.09728451576620789</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.09989118638087913</v>
+        <v>0.09723449315519406</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.09947101247536327</v>
+        <v>0.09648933041737662</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.09947101247536327</v>
+        <v>0.09432414839009162</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.09892982116404103</v>
+        <v>0.09417816427260117</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.09843494043828804</v>
+        <v>0.09230316271520755</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.09816267152496838</v>
+        <v>0.09170559107065479</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.09816267152496838</v>
+        <v>0.09143849478073851</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.09636187257067275</v>
+        <v>0.09124396178419003</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.09603459539965931</v>
+        <v>0.09089438956494833</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.09454830103918788</v>
+        <v>0.09014202591554588</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.09328397719933146</v>
+        <v>0.08992835304104174</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.09143849478073851</v>
+        <v>0.08991689781288259</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.09106966970033237</v>
+        <v>0.08953245861291093</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.09024503891559776</v>
+        <v>0.08922027080072303</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.08992835304104174</v>
+        <v>0.08922027080072303</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.08888310796356014</v>
+        <v>0.08922027080072303</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.08857092015137247</v>
+        <v>0.08922027080072303</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.08857092015137247</v>
+        <v>0.08922027080072303</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.08857092015137247</v>
+        <v>0.08895497287032694</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.08857092015137247</v>
+        <v>0.08851119906036997</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.08857092015137247</v>
+        <v>0.08673251843081475</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.08831261734950124</v>
+        <v>0.08631546244920663</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.08678775381814319</v>
+        <v>0.08504391592953042</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.08673251843081475</v>
+        <v>0.08477450684414589</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.08504391592953042</v>
+        <v>0.08398361302049673</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.08477450684414589</v>
+        <v>0.08350234874702411</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.08035297363236915</v>
+        <v>0.08100232428171994</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.08035297363236915</v>
+        <v>0.08100232428171994</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.08035297363236915</v>
+        <v>0.08100232428171994</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.07416229552365938</v>
+        <v>0.0714865825440949</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.07199419172193289</v>
+        <v>0.07056418763749051</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.0714865825440949</v>
+        <v>0.06998789849211939</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.07056418763749051</v>
+        <v>0.06980464025293953</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.0696547901030895</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.06939027921340557</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5165,7 +5165,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5173,7 +5173,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5189,7 +5189,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5197,7 +5197,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5253,7 +5253,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5261,7 +5261,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.06810610889791846</v>
+        <v>0.06875545954726925</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5269,7 +5269,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.06810610889791846</v>
+        <v>0.0678197946903929</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5277,7 +5277,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.06810610889791846</v>
+        <v>0.0662617286529843</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5285,7 +5285,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.0662617286529843</v>
+        <v>0.06578911213026783</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5293,7 +5293,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.06602164618802786</v>
+        <v>0.06448346292246177</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5301,7 +5301,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.06563926198041758</v>
+        <v>0.06448346292246177</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5309,7 +5309,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.06473680515102775</v>
+        <v>0.06332967315279947</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5317,7 +5317,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.06448346292246177</v>
+        <v>0.06243924061691919</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.06448346292246177</v>
+        <v>0.06213005912847436</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.06225970505636758</v>
+        <v>0.06067134784023254</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.06213005912847436</v>
+        <v>0.06040780082202346</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5349,7 +5349,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.06202962475707152</v>
+        <v>0.05996104012742176</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.06152953210108913</v>
+        <v>0.05810551430535926</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.06103615795385897</v>
+        <v>0.05619909899576148</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.06067134784023254</v>
+        <v>0.05483943308784833</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.06033102491347098</v>
+        <v>0.05463018145173848</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.06033102491347098</v>
+        <v>0.05373251907487431</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5397,7 +5397,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.05483943308784833</v>
+        <v>0.04682994266238838</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.05373251907487431</v>
+        <v>0.04682994266238838</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.04560607192687671</v>
+        <v>0.03640693772774273</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.03534987580494908</v>
+        <v>0.0316279424467798</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.0314234098761752</v>
+        <v>0.03064208359715703</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.03135275009219374</v>
+        <v>0.02980377503249798</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.02980377503249798</v>
+        <v>0.0279436591831026</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.02702457299371663</v>
+        <v>0.02694132291046647</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5629,7 +5629,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.0189404188000315</v>
+        <v>0.01952594571052035</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5637,7 +5637,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.01518567278111438</v>
+        <v>0.008069838798695272</v>
       </c>
     </row>
   </sheetData>
